--- a/pratiques.xlsx
+++ b/pratiques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\orgnosis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Partage\jsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E65A1638-B507-4BA5-9C31-07E49800946C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{62828776-B8F8-4527-BEF5-CCB823331BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pratiques" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="346" uniqueCount="156">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="173" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -60,300 +60,42 @@
     <t>Devops</t>
   </si>
   <si>
-    <t>PÃ©rimÃ¨tre</t>
-  </si>
-  <si>
-    <t>La gestion des bugs connus et Ã  rÃ©soudre existe, est connue, partagÃ©e et pÃ©rennes ? (anomalies non bloquantes en prod ou avant-prod)</t>
-  </si>
-  <si>
     <t>Pas de base de connaissances des bugs</t>
   </si>
   <si>
-    <t>les bugs connus sont listÃ©s</t>
-  </si>
-  <si>
-    <t>les bugs connus sont qualifiÃ©s, historisÃ©s</t>
-  </si>
-  <si>
-    <t>les bugs connus sont qualifiÃ©s, historisÃ©s, et remontÃ©s dans les supports de gouvernance</t>
-  </si>
-  <si>
-    <t>Les bugs connus sont qualifiÃ©s, historisÃ©s, documentÃ©s et centralisÃ©s (et remontÃ©s dans des supports de gouvernance)</t>
-  </si>
-  <si>
     <t>Plan</t>
   </si>
   <si>
-    <t>Humain &amp; MatÃ©riel</t>
-  </si>
-  <si>
     <t>Excellence Technique</t>
   </si>
   <si>
     <t>Application, Produit, Projet</t>
   </si>
   <si>
-    <t>Quel est le dÃ©grÃ© de connaissance du produit de l'Ã©quipe ?</t>
-  </si>
-  <si>
-    <t>Le produit n'est pas vraiment compris pas l'Ã©quipe de dÃ©veloppement, et pas de documentation sur le produit, sa raison d'Ãªtre et ses fonctionnalitÃ©s.</t>
-  </si>
-  <si>
-    <t>Seul le PO/RA peut faire ce genre de prÃ©sentation OU une documentation technique du produit existe</t>
-  </si>
-  <si>
-    <t>Seul le CP/Tech  lead peuvent faire ce genre de prÃ©sentation OU un manuel utilisateur existe</t>
-  </si>
-  <si>
-    <t>Tous les membres de l'Ã©quipe peuvent faire un elevator speech OU un Ã©lÃ©ment de documentation dÃ©tailÃ©e existe</t>
-  </si>
-  <si>
-    <t>Tous les membres de l'Ã©quipe peuvent faire un elevator speech ET un Ã©lÃ©ment de documentation dÃ©tailÃ©e existe</t>
-  </si>
-  <si>
-    <t>Pratiques OpÃ©rationnelles</t>
-  </si>
-  <si>
-    <t>Equipe de dÃ©v</t>
-  </si>
-  <si>
     <t>Culture</t>
   </si>
   <si>
-    <t>Equipe de rÃ©alisation</t>
-  </si>
-  <si>
-    <t>Le projet met-il Ã  disposition les informations /  les documents nÃ©cessaires Ã  la gestion des incidents ?</t>
-  </si>
-  <si>
-    <t>Aucune traÃ§abilitÃ© des incidents</t>
-  </si>
-  <si>
-    <t>Liste d'incidents passÃ©s existe</t>
-  </si>
-  <si>
-    <t>Incidents passÃ©s qualifiÃ©s (root cause identifiÃ©es) et historisÃ©s</t>
-  </si>
-  <si>
-    <t>Incidents passÃ©s sont documentÃ©s et une procÃ©dure dÃ©taille leur  rÃ©solution</t>
-  </si>
-  <si>
-    <t>Incidents passÃ© documentÃ©s et validÃ©s ou une procÃ©dure dÃ©taille leur process de rÃ©solution</t>
-  </si>
-  <si>
     <t>Release</t>
   </si>
   <si>
-    <t>QualitÃ© du code</t>
-  </si>
-  <si>
-    <t>Les dÃ©veloppeurs ont-ils connaissance du portail des dÃ©veloppeurs ?</t>
-  </si>
-  <si>
-    <t>La roadmap aplicative est-elle partagÃ©e avec les contributeurs projets ?</t>
-  </si>
-  <si>
-    <t>Quel est le niveau de partage des objectifs et prioritÃ©s sur le projet ?</t>
-  </si>
-  <si>
-    <t>La rÃ©solution des bugs connus est-elle priorisÃ©e ?</t>
-  </si>
-  <si>
-    <t>Les objectifs et la planification sont-il revus rÃ©guliÃ¨rement en regard du contexte ?</t>
-  </si>
-  <si>
-    <t>De quelle visibilitÃ© disposez-vous sur les charges de travail ?</t>
-  </si>
-  <si>
-    <t>Les dÃ©veloppeurs ont-il connaissance des Standards d'architecture de la structure ?</t>
-  </si>
-  <si>
-    <t>Les dÃ©veloppeurs sont-il familiarisÃ©s avec toute la base de code du projet ?</t>
-  </si>
-  <si>
-    <t>ÃŠtes vous en mesure de dÃ©finir les termes suivants : Dette technique /  Refactoring / Code Rot / RÃ¨gle du boyscout ?</t>
-  </si>
-  <si>
     <t>Est-ce qu'on trouve une branche 'master' ?</t>
   </si>
   <si>
-    <t>Quel est le nombres de branches actives sur le serveur distant de rÃ©fÃ©rence ?</t>
-  </si>
-  <si>
-    <t>Quelle est la durÃ©e de vie moyenne des branches en cours de dÃ©veloppement sur le serveur distant de rÃ©fÃ©rence ?</t>
-  </si>
-  <si>
-    <t>Est-ce que tous les dÃ©veloppeurs utilisent l'outil de versionnage ?</t>
-  </si>
-  <si>
-    <t>Existe-t'il des restrictions de rÃ©usinage (refactoring) sur le code l'application ?</t>
-  </si>
-  <si>
     <t>Quelles sont les pratiques en terme de revue de code ?</t>
   </si>
   <si>
     <t>Quelles sont les pratiques en terme de DDD (Domain Driven Design) ?</t>
   </si>
   <si>
-    <t>Pratique-vous du pair/mob programming (montÃ©e en compÃ©tences de junior, partager des connaissances, remplacer des revues de code ou pratiquer le TDD) ?</t>
-  </si>
-  <si>
-    <t>Existe-t'il un cadre dÃ©fini pour les revues de code ?</t>
-  </si>
-  <si>
-    <t>La rÃ©solution des bugs potentiels (rapport d'analyse) est-elle priorisÃ©e ?</t>
-  </si>
-  <si>
-    <t>Les Ã©lÃ©ments de configurations sont-ils versionnÃ©s (code, tests, scripts, paramÃ©trage, docs (DE, DI, ...)) ?</t>
-  </si>
-  <si>
-    <t>Existe-t'il une convention de codage connue, partagÃ©e et appliquÃ©e par les dÃ©veloppeurs ?</t>
-  </si>
-  <si>
-    <t>Quel est le niveau de maÃ®trise de l'ouytil de build/packaging (maven, msbuild, gradle, ...) ?</t>
-  </si>
-  <si>
-    <t>L'Ã©tape de compilation est-elle rapide ?</t>
-  </si>
-  <si>
     <t>Quel est l'usage fait des analyses statiques (Sonarqube) ?</t>
   </si>
   <si>
-    <t>Existe-t'il un outil unique de packaging connu et partagÃ© entre les membres de l'Ã©quipe ?</t>
-  </si>
-  <si>
-    <t>Existe-t'il un serveur de build connu et partagÃ© entre les membres de l'Ã©quipe ?</t>
-  </si>
-  <si>
-    <t>Quel est l'usage fait de la plateforme d'intÃ©gration continue ?</t>
-  </si>
-  <si>
-    <t>Les dÃ©veloppeurs sont-ils sensibilisÃ©s Ã  la pratique des tests automatisÃ©s ?</t>
-  </si>
-  <si>
-    <t>Les dÃ©veloppeurs sont-ils sensibilisÃ©s Ã  la pratique de couverture de code ?</t>
-  </si>
-  <si>
-    <t>L'application est Ã©valuÃ©e au moins une fois par jour le serveur de build ?</t>
-  </si>
-  <si>
-    <t>Quelle est la maturitÃ© de l'Ã©quipe concernant le TDD ?</t>
-  </si>
-  <si>
-    <t>Quelle est la maturitÃ© de l'Ã©quipe concernant le BDD ?</t>
-  </si>
-  <si>
     <t>Sessions d'analyse statique sont-elle rapide ?</t>
   </si>
   <si>
-    <t>Sessions de test automatisÃ©s sont-elles rapide ?</t>
-  </si>
-  <si>
     <t>Combien de temps prends le packaging ?</t>
   </si>
   <si>
-    <t>Si je travaille avec un partenaire externe, est ce que les rÃ¨gles de collaboration sont partagÃ©es ?</t>
-  </si>
-  <si>
-    <t>Est-ce que l'Ã©quipe de dÃ©veloppement a accÃ¨s Ã  un profil utilisateur ?</t>
-  </si>
-  <si>
-    <t>Quel est le niveau de l'environnement physique dÃ©diÃ© aux contributeurs du projet ?</t>
-  </si>
-  <si>
-    <t>Les dÃ©veloppeurs ont-ils accÃ¨s Ã  un gestionnaire de dÃ©pendances de qualitÃ©, avec ou sans proxy et/ou miroirs ?</t>
-  </si>
-  <si>
-    <t>Quel est le niveau de l'envionnment logiciel dÃ©diÃ© aux contributeurs du projet ?</t>
-  </si>
-  <si>
-    <t>Quel est le niveau du matÃ©riel dÃ©diÃ© ayx contributeurs du projet ? Espace disque insuffisant/suffisant/confortable, Espace RAM insuffisant/suffisant/confortable, Puissance processeur insuffisant/suffisant/confortable, Taille et quantitÃ© des Ã©crans insuffisant/suffisant/confortable ?</t>
-  </si>
-  <si>
-    <t>Quel est le dÃ©grÃ© d'accÃ¨s documentaire technique ?</t>
-  </si>
-  <si>
-    <t>Quel est le dÃ©grÃ© de complexitÃ© du dÃ©ploiement ?</t>
-  </si>
-  <si>
-    <t>Quel est la frÃ©quence de dÃ©ploiement en production ?</t>
-  </si>
-  <si>
-    <t>Quel est le dÃ©grÃ© de confiance sur le rollback (retour arriÃ¨re) ?</t>
-  </si>
-  <si>
-    <t>Existe-t'il un leader technique dans l'Ã©quipe/projet/produit ?</t>
-  </si>
-  <si>
-    <t>Quelle est la maturitÃ© concernant le monitoring du runtime ?</t>
-  </si>
-  <si>
-    <t>Dans quelle mesure le travail inter-Ã©quipe est-il encouragÃ© ?</t>
-  </si>
-  <si>
-    <t>Quels sont les processus mis en place pour faciliter les Ã©changes dev &amp; ops ?</t>
-  </si>
-  <si>
-    <t>Comment l'Ã©quipe entretient-elle son ninveau de savaoir-faire pendant le temps de travail ?</t>
-  </si>
-  <si>
-    <t>Quel est le niveau d'Ã©change entre les dev &amp; les ops ?</t>
-  </si>
-  <si>
-    <t>Le projet/ produit est-il conÃ§u pour rÃ©pondre Ã  un besoin identifiÃ© ete sa valeur ajoutÃ©e est-elle mesurable ?</t>
-  </si>
-  <si>
-    <t>Les hypothÃ¨ses sur la pertinence du lancement de l'application/projet/produit ont-elle Ã©tÃ© verifiÃ©es avec des utilisateurs ?</t>
-  </si>
-  <si>
-    <t>Le concept de Backlog Produit est-il appliquÃ© ?</t>
-  </si>
-  <si>
-    <t>Y'a t'il un rÃ´le de Product Owner (PO) ou Ã©quivalent affectÃ© au produit/application/projet ?</t>
-  </si>
-  <si>
-    <t>La aleur mÃ©tier est-elle une mÃ©trique de rÃ©fÃ©rence pour informaer les dÃ©cisions prises par l'Ã©quipe ?</t>
-  </si>
-  <si>
-    <t>L'Ã©quipe est-elle stable ?</t>
-  </si>
-  <si>
-    <t>L'Ã©quipe conserve-t-elle une taille qui optimise la collaboration durant le cycle de vie de l'application/produit/projet ?</t>
-  </si>
-  <si>
-    <t>L'Ã©quipe s'engage-t-elle sur sa capacitÃ© Ã  produire de la valeur aux utilisateurs ? (capacitÃ© en Sprint Planning Scrum, WIP Limit en Kanban, ...)</t>
-  </si>
-  <si>
-    <t>Quelle est le degrÃ© de confiance et/ou de transaparence dans l'Ã©quipe ?</t>
-  </si>
-  <si>
-    <t>Les utilisateurs sont-ils intÃ©grÃ©s dans une boucle de feedback afin de faire Ã©voluer le produit ? (interviews, dÃ©mos, ...)</t>
-  </si>
-  <si>
-    <t>L'Ã©quipe suit-elle un principe d'incrÃ©mentalitÃ©/d'itÃ©ration pour tester sa rÃ©alisation ?</t>
-  </si>
-  <si>
-    <t>Comment est Ã©tabli la mesure du succÃ¨s de l'Ã©quipe ?</t>
-  </si>
-  <si>
-    <t>Quel type de communication est mis en place pour rendre compte des avancÃ©es ?</t>
-  </si>
-  <si>
-    <t>L'Ã©quipe dÃ©livre t'elle effectivement de la valeur mÃ©tier Ã  chaque itÃ©ration ?</t>
-  </si>
-  <si>
-    <t>Dans le cadre de son amÃ©lioration continue, l'Ã©quipe s'auto organise pour identifier, comprendre et supprimer les causes racines des incidents/imprÃ©vus ?</t>
-  </si>
-  <si>
-    <t>MÃ©tier, IT et Prod participent Ã  la crÃ©ation de la vision et sont alignes avec celle-ci</t>
-  </si>
-  <si>
-    <t>Comment le budget allouÃ© pour l'application/projet/produit est-il dÃ©fini ?</t>
-  </si>
-  <si>
-    <t>Comment est pensÃ©e la stratÃ©gie produit ?</t>
-  </si>
-  <si>
     <t>Gestion de la documentation applicative ?</t>
   </si>
   <si>
@@ -366,69 +108,18 @@
     <t>Un plan de gestion documentaire existe, et est partiellement mis en oeuvre</t>
   </si>
   <si>
-    <t>Plan de gestion documentaire mis en place, Ã  jour, et mis en oeuvre</t>
-  </si>
-  <si>
-    <t>Plan de gestion documentaire mis en place, Ã  jour, et mis en oeuvre dans les outils dÃ©diÃ©s</t>
-  </si>
-  <si>
-    <t>ProcÃ©dures &amp; Outils</t>
-  </si>
-  <si>
     <t>Patrimoine, Portfolio</t>
   </si>
   <si>
-    <t>Gestion stratÃ©gie de test ?</t>
-  </si>
-  <si>
     <t>Non</t>
   </si>
   <si>
-    <t>StratÃ©gie de test dÃ©finie en dÃ©but de projet</t>
-  </si>
-  <si>
-    <t>StrÃ©atÃ©gie de tests avec une instance de mise Ã  jour ponctuelle</t>
-  </si>
-  <si>
-    <t>StratÃ©gie de tests Ã©volutive mais incomplÃ¨te</t>
-  </si>
-  <si>
-    <t>StratÃ©gie de test complÃ¨te, Ã©volutive, identifie et Ã©value les risques, prenant en compte les efforts nÃ©cessaire, prÃ©cisant les conditions d'acceptations de livraison</t>
-  </si>
-  <si>
     <t>Gestion exigences non fonctionnelles ?</t>
   </si>
   <si>
-    <t>Un document d'exigence mais sans dÃ©clinaisons dans la stratÃ©gie de tests</t>
-  </si>
-  <si>
-    <t>Certaines exigences exprimÃ©es, mais sans preuve d'exhausitvitÃ© des tests</t>
-  </si>
-  <si>
-    <t>Toutes les ilities sont exprimÃ©s, et des modes de tests sont dÃ©finis</t>
-  </si>
-  <si>
-    <t>Expression de toutes les ilities explicite avec un mode de test dÃ©clinÃ©s dans le document de stratÃ©gie de test et dÃ©clinable en continu</t>
-  </si>
-  <si>
     <t>Gestion des exigences fonctionnelles</t>
   </si>
   <si>
-    <t>Les documents d'Ã©xigence sont les seuls moyens d'interaction avec les experts mÃ©tiers/reprÃ©sentant utilisateurs</t>
-  </si>
-  <si>
-    <t>Des moyens decommunication indirect existent pour Ã©changer avec des interlocuteurs mÃ©tiers</t>
-  </si>
-  <si>
-    <t>Les interlocuteurs mÃ©tiers sont dÃ©diÃ©s et disponible pour rÃ©pondre via mail / outils de ticketing / tÃ©lÃ©phone</t>
-  </si>
-  <si>
-    <t>les interlocuteurs mÃ©tiers sont disponibles en direct</t>
-  </si>
-  <si>
-    <t>Un expert mÃ©tier/ reprÃ©sentant utilisateaurs travaille au sein de l'Ã©quipe</t>
-  </si>
-  <si>
     <t>Réminiscent</t>
   </si>
   <si>
@@ -493,12 +184,321 @@
   </si>
   <si>
     <t>Pas de conception orientée objet</t>
+  </si>
+  <si>
+    <t>les bugs connus sont listés</t>
+  </si>
+  <si>
+    <t>les bugs connus sont qualifiés, historisés</t>
+  </si>
+  <si>
+    <t>les bugs connus sont qualifiés, historisés, et remontés dans les supports de gouvernance</t>
+  </si>
+  <si>
+    <t>Les bugs connus sont qualifiés, historisés, documentés et centralisés (et remontés dans des supports de gouvernance)</t>
+  </si>
+  <si>
+    <t>Humain &amp; Matériel</t>
+  </si>
+  <si>
+    <t>Quel est le dégré de connaissance du produit de l'équipe ?</t>
+  </si>
+  <si>
+    <t>Seul le PO/RA peut faire ce genre de présentation OU une documentation technique du produit existe</t>
+  </si>
+  <si>
+    <t>Seul le CP/Tech  lead peuvent faire ce genre de présentation OU un manuel utilisateur existe</t>
+  </si>
+  <si>
+    <t>Tous les membres de l'équipe peuvent faire un elevator speech OU un élément de documentation détailée existe</t>
+  </si>
+  <si>
+    <t>Tous les membres de l'équipe peuvent faire un elevator speech ET un élément de documentation détailée existe</t>
+  </si>
+  <si>
+    <t>Pratiques Opérationnelles</t>
+  </si>
+  <si>
+    <t>Equipe de dév</t>
+  </si>
+  <si>
+    <t>Equipe de réalisation</t>
+  </si>
+  <si>
+    <t>Liste d'incidents passés existe</t>
+  </si>
+  <si>
+    <t>Incidents passés qualifiés (root cause identifiées) et historisés</t>
+  </si>
+  <si>
+    <t>Incidents passés sont documentés et une procédure détaille leur  résolution</t>
+  </si>
+  <si>
+    <t>Incidents passé documentés et validés ou une procédure détaille leur process de résolution</t>
+  </si>
+  <si>
+    <t>Qualité du code</t>
+  </si>
+  <si>
+    <t>Les développeurs ont-ils connaissance du portail des développeurs ?</t>
+  </si>
+  <si>
+    <t>La roadmap aplicative est-elle partagée avec les contributeurs projets ?</t>
+  </si>
+  <si>
+    <t>Quel est le niveau de partage des objectifs et priorités sur le projet ?</t>
+  </si>
+  <si>
+    <t>La résolution des bugs connus est-elle priorisée ?</t>
+  </si>
+  <si>
+    <t>De quelle visibilité disposez-vous sur les charges de travail ?</t>
+  </si>
+  <si>
+    <t>Les développeurs ont-il connaissance des Standards d'architecture de la structure ?</t>
+  </si>
+  <si>
+    <t>Les développeurs sont-il familiarisés avec toute la base de code du projet ?</t>
+  </si>
+  <si>
+    <t>Quel est le nombres de branches actives sur le serveur distant de référence ?</t>
+  </si>
+  <si>
+    <t>Quelle est la durée de vie moyenne des branches en cours de développement sur le serveur distant de référence ?</t>
+  </si>
+  <si>
+    <t>Est-ce que tous les développeurs utilisent l'outil de versionnage ?</t>
+  </si>
+  <si>
+    <t>Existe-t'il des restrictions de réusinage (refactoring) sur le code l'application ?</t>
+  </si>
+  <si>
+    <t>Pratique-vous du pair/mob programming (montée en compétences de junior, partager des connaissances, remplacer des revues de code ou pratiquer le TDD) ?</t>
+  </si>
+  <si>
+    <t>Existe-t'il un cadre défini pour les revues de code ?</t>
+  </si>
+  <si>
+    <t>La résolution des bugs potentiels (rapport d'analyse) est-elle priorisée ?</t>
+  </si>
+  <si>
+    <t>Les éléments de configurations sont-ils versionnés (code, tests, scripts, paramétrage, docs (DE, DI, ...)) ?</t>
+  </si>
+  <si>
+    <t>Existe-t'il une convention de codage connue, partagée et appliquée par les développeurs ?</t>
+  </si>
+  <si>
+    <t>L'étape de compilation est-elle rapide ?</t>
+  </si>
+  <si>
+    <t>Existe-t'il un outil unique de packaging connu et partagé entre les membres de l'équipe ?</t>
+  </si>
+  <si>
+    <t>Existe-t'il un serveur de build connu et partagé entre les membres de l'équipe ?</t>
+  </si>
+  <si>
+    <t>Quel est l'usage fait de la plateforme d'intégration continue ?</t>
+  </si>
+  <si>
+    <t>L'application est évaluée au moins une fois par jour le serveur de build ?</t>
+  </si>
+  <si>
+    <t>Quelle est la maturité de l'équipe concernant le TDD ?</t>
+  </si>
+  <si>
+    <t>Quelle est la maturité de l'équipe concernant le BDD ?</t>
+  </si>
+  <si>
+    <t>Sessions de test automatisés sont-elles rapide ?</t>
+  </si>
+  <si>
+    <t>Quel est le niveau de l'environnement physique dédié aux contributeurs du projet ?</t>
+  </si>
+  <si>
+    <t>Quel est le niveau de l'envionnment logiciel dédié aux contributeurs du projet ?</t>
+  </si>
+  <si>
+    <t>Quel est le niveau du matériel dédié ayx contributeurs du projet ? Espace disque insuffisant/suffisant/confortable, Espace RAM insuffisant/suffisant/confortable, Puissance processeur insuffisant/suffisant/confortable, Taille et quantité des écrans insuffisant/suffisant/confortable ?</t>
+  </si>
+  <si>
+    <t>Quel est le dégré de complexité du déploiement ?</t>
+  </si>
+  <si>
+    <t>Quel est la fréquence de déploiement en production ?</t>
+  </si>
+  <si>
+    <t>Existe-t'il un leader technique dans l'équipe/projet/produit ?</t>
+  </si>
+  <si>
+    <t>Quelle est la maturité concernant le monitoring du runtime ?</t>
+  </si>
+  <si>
+    <t>Dans quelle mesure le travail inter-équipe est-il encouragé ?</t>
+  </si>
+  <si>
+    <t>Quels sont les processus mis en place pour faciliter les échanges dev &amp; ops ?</t>
+  </si>
+  <si>
+    <t>Comment l'équipe entretient-elle son ninveau de savaoir-faire pendant le temps de travail ?</t>
+  </si>
+  <si>
+    <t>Quel est le niveau d'échange entre les dev &amp; les ops ?</t>
+  </si>
+  <si>
+    <t>Le concept de Backlog Produit est-il appliqué ?</t>
+  </si>
+  <si>
+    <t>La aleur métier est-elle une métrique de référence pour informaer les décisions prises par l'équipe ?</t>
+  </si>
+  <si>
+    <t>L'équipe est-elle stable ?</t>
+  </si>
+  <si>
+    <t>L'équipe conserve-t-elle une taille qui optimise la collaboration durant le cycle de vie de l'application/produit/projet ?</t>
+  </si>
+  <si>
+    <t>Quelle est le degré de confiance et/ou de transaparence dans l'équipe ?</t>
+  </si>
+  <si>
+    <t>Les utilisateurs sont-ils intégrés dans une boucle de feedback afin de faire évoluer le produit ? (interviews, démos, ...)</t>
+  </si>
+  <si>
+    <t>L'équipe suit-elle un principe d'incrémentalité/d'itération pour tester sa réalisation ?</t>
+  </si>
+  <si>
+    <t>Quel type de communication est mis en place pour rendre compte des avancées ?</t>
+  </si>
+  <si>
+    <t>Dans le cadre de son amélioration continue, l'équipe s'auto organise pour identifier, comprendre et supprimer les causes racines des incidents/imprévus ?</t>
+  </si>
+  <si>
+    <t>Comment le budget alloué pour l'application/projet/produit est-il défini ?</t>
+  </si>
+  <si>
+    <t>Comment est pensée la stratégie produit ?</t>
+  </si>
+  <si>
+    <t>Procédures &amp; Outils</t>
+  </si>
+  <si>
+    <t>Gestion stratégie de test ?</t>
+  </si>
+  <si>
+    <t>Stratégie de test définie en début de projet</t>
+  </si>
+  <si>
+    <t>Un document d'exigence mais sans déclinaisons dans la stratégie de tests</t>
+  </si>
+  <si>
+    <t>Certaines exigences exprimées, mais sans preuve d'exhausitvité des tests</t>
+  </si>
+  <si>
+    <t>Toutes les ilities sont exprimés, et des modes de tests sont définis</t>
+  </si>
+  <si>
+    <t>Expression de toutes les ilities explicite avec un mode de test déclinés dans le document de stratégie de test et déclinable en continu</t>
+  </si>
+  <si>
+    <t>Les documents d'éxigence sont les seuls moyens d'interaction avec les experts métiers/représentant utilisateurs</t>
+  </si>
+  <si>
+    <t>Des moyens decommunication indirect existent pour échanger avec des interlocuteurs métiers</t>
+  </si>
+  <si>
+    <t>Les interlocuteurs métiers sont dédiés et disponible pour répondre via mail / outils de ticketing / téléphone</t>
+  </si>
+  <si>
+    <t>les interlocuteurs métiers sont disponibles en direct</t>
+  </si>
+  <si>
+    <t>Un expert métier/ représentant utilisateaurs travaille au sein de l'équipe</t>
+  </si>
+  <si>
+    <t>Périmà¨tre</t>
+  </si>
+  <si>
+    <t>La gestion des bugs connus et à  résoudre existe, est connue, partagée et pérennes ? (anomalies non bloquantes en prod ou avant-prod)</t>
+  </si>
+  <si>
+    <t>Le produit n'est pas vraiment compris pas l'équipe de développement, et pas de documentation sur le produit, sa raison d'àªtre et ses fonctionnalités.</t>
+  </si>
+  <si>
+    <t>Le projet met-il à  disposition les informations /  les documents nécessaires à  la gestion des incidents ?</t>
+  </si>
+  <si>
+    <t>Aucune traà§abilité des incidents</t>
+  </si>
+  <si>
+    <t>Les objectifs et la planification sont-il revus régulià¨rement en regard du contexte ?</t>
+  </si>
+  <si>
+    <t>àŠtes vous en mesure de définir les termes suivants : Dette technique /  Refactoring / Code Rot / Rà¨gle du boyscout ?</t>
+  </si>
+  <si>
+    <t>Quel est le niveau de maà®trise de l'ouytil de build/packaging (maven, msbuild, gradle, ...) ?</t>
+  </si>
+  <si>
+    <t>Les développeurs sont-ils sensibilisés à  la pratique des tests automatisés ?</t>
+  </si>
+  <si>
+    <t>Les développeurs sont-ils sensibilisés à  la pratique de couverture de code ?</t>
+  </si>
+  <si>
+    <t>Si je travaille avec un partenaire externe, est ce que les rà¨gles de collaboration sont partagées ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'équipe de développement a accà¨s à  un profil utilisateur ?</t>
+  </si>
+  <si>
+    <t>Les développeurs ont-ils accà¨s à  un gestionnaire de dépendances de qualité, avec ou sans proxy et/ou miroirs ?</t>
+  </si>
+  <si>
+    <t>Quel est le dégré d'accà¨s documentaire technique ?</t>
+  </si>
+  <si>
+    <t>Quel est le dégré de confiance sur le rollback (retour arrià¨re) ?</t>
+  </si>
+  <si>
+    <t>Le projet/ produit est-il conà§u pour répondre à  un besoin identifié ete sa valeur ajoutée est-elle mesurable ?</t>
+  </si>
+  <si>
+    <t>Les hypothà¨ses sur la pertinence du lancement de l'application/projet/produit ont-elle été verifiées avec des utilisateurs ?</t>
+  </si>
+  <si>
+    <t>Y'a t'il un rà´le de Product Owner (PO) ou équivalent affecté au produit/application/projet ?</t>
+  </si>
+  <si>
+    <t>L'équipe s'engage-t-elle sur sa capacité à  produire de la valeur aux utilisateurs ? (capacité en Sprint Planning Scrum, WIP Limit en Kanban, ...)</t>
+  </si>
+  <si>
+    <t>Comment est établi la mesure du succà¨s de l'équipe ?</t>
+  </si>
+  <si>
+    <t>L'équipe délivre t'elle effectivement de la valeur métier à  chaque itération ?</t>
+  </si>
+  <si>
+    <t>Métier, IT et Prod participent à  la création de la vision et sont alignes avec celle-ci</t>
+  </si>
+  <si>
+    <t>Plan de gestion documentaire mis en place, à  jour, et mis en oeuvre</t>
+  </si>
+  <si>
+    <t>Plan de gestion documentaire mis en place, à  jour, et mis en oeuvre dans les outils dédiés</t>
+  </si>
+  <si>
+    <t>Stréatégie de tests avec une instance de mise à  jour ponctuelle</t>
+  </si>
+  <si>
+    <t>Stratégie de tests évolutive mais incomplà¨te</t>
+  </si>
+  <si>
+    <t>Stratégie de test complà¨te, évolutive, identifie et évalue les risques, prenant en compte les efforts nécessaire, précisant les conditions d'acceptations de livraison</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -976,11 +976,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1335,11 +1336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,241 +1390,241 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
+        <v>132</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1631,54 +1632,54 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,69 +1687,69 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1756,7 +1757,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1764,71 +1765,71 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,15 +1837,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1852,175 +1853,175 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2028,95 +2029,95 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -2124,7 +2125,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -2132,31 +2133,31 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="E74" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="G74" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I74" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L74" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -2164,31 +2165,31 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
         <v>119</v>
       </c>
       <c r="E75" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F75" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="G75" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L75" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -2196,31 +2197,31 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76" t="s">
+        <v>122</v>
+      </c>
+      <c r="G76" t="s">
         <v>123</v>
       </c>
-      <c r="C76" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76" t="s">
-        <v>124</v>
-      </c>
-      <c r="E76" t="s">
-        <v>125</v>
-      </c>
-      <c r="F76" t="s">
-        <v>126</v>
-      </c>
-      <c r="G76" t="s">
-        <v>127</v>
-      </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L76" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -2228,31 +2229,31 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77" t="s">
+        <v>127</v>
+      </c>
+      <c r="G77" t="s">
         <v>128</v>
       </c>
-      <c r="C77" t="s">
-        <v>129</v>
-      </c>
-      <c r="D77" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" t="s">
-        <v>131</v>
-      </c>
-      <c r="F77" t="s">
-        <v>132</v>
-      </c>
-      <c r="G77" t="s">
-        <v>133</v>
-      </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I77" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L77" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/pratiques.xlsx
+++ b/pratiques.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Partage\jsc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\orgnosis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{62828776-B8F8-4527-BEF5-CCB823331BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA2F472-99D7-4461-B393-BE28F6946725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pratiques" sheetId="1" r:id="rId1"/>
+    <sheet name="Pratiques" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="173" uniqueCount="156">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="482" uniqueCount="459">
   <si>
     <t>id</t>
   </si>
@@ -147,9 +147,6 @@
     <t>La roadmap à long terme &gt;12 mois est en place, partagée et accessible</t>
   </si>
   <si>
-    <t>Le smembres du projet connaissent leurs objectifs ou priorité des prochaines 24h</t>
-  </si>
-  <si>
     <t>L'équipe de développement gère les problèmes au fur et à mesure qu'ils deviennent bloquants</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Les tâches sont priorisée sans consulter les contributeurs</t>
   </si>
   <si>
-    <t>le terme STA n'est pas connu</t>
-  </si>
-  <si>
     <t>Il existe une ou plusieurs zones du code considérés trop complexes, ou "legacy" et donc non modificables</t>
   </si>
   <si>
@@ -186,15 +180,6 @@
     <t>Pas de conception orientée objet</t>
   </si>
   <si>
-    <t>les bugs connus sont listés</t>
-  </si>
-  <si>
-    <t>les bugs connus sont qualifiés, historisés</t>
-  </si>
-  <si>
-    <t>les bugs connus sont qualifiés, historisés, et remontés dans les supports de gouvernance</t>
-  </si>
-  <si>
     <t>Les bugs connus sont qualifiés, historisés, documentés et centralisés (et remontés dans des supports de gouvernance)</t>
   </si>
   <si>
@@ -264,9 +249,6 @@
     <t>Quel est le nombres de branches actives sur le serveur distant de référence ?</t>
   </si>
   <si>
-    <t>Quelle est la durée de vie moyenne des branches en cours de développement sur le serveur distant de référence ?</t>
-  </si>
-  <si>
     <t>Est-ce que tous les développeurs utilisent l'outil de versionnage ?</t>
   </si>
   <si>
@@ -315,9 +297,6 @@
     <t>Quel est le niveau de l'environnement physique dédié aux contributeurs du projet ?</t>
   </si>
   <si>
-    <t>Quel est le niveau de l'envionnment logiciel dédié aux contributeurs du projet ?</t>
-  </si>
-  <si>
     <t>Quel est le niveau du matériel dédié ayx contributeurs du projet ? Espace disque insuffisant/suffisant/confortable, Espace RAM insuffisant/suffisant/confortable, Puissance processeur insuffisant/suffisant/confortable, Taille et quantité des écrans insuffisant/suffisant/confortable ?</t>
   </si>
   <si>
@@ -348,9 +327,6 @@
     <t>Le concept de Backlog Produit est-il appliqué ?</t>
   </si>
   <si>
-    <t>La aleur métier est-elle une métrique de référence pour informaer les décisions prises par l'équipe ?</t>
-  </si>
-  <si>
     <t>L'équipe est-elle stable ?</t>
   </si>
   <si>
@@ -426,54 +402,15 @@
     <t>Le projet met-il à  disposition les informations /  les documents nécessaires à  la gestion des incidents ?</t>
   </si>
   <si>
-    <t>Aucune traà§abilité des incidents</t>
-  </si>
-  <si>
-    <t>Les objectifs et la planification sont-il revus régulià¨rement en regard du contexte ?</t>
-  </si>
-  <si>
-    <t>àŠtes vous en mesure de définir les termes suivants : Dette technique /  Refactoring / Code Rot / Rà¨gle du boyscout ?</t>
-  </si>
-  <si>
-    <t>Quel est le niveau de maà®trise de l'ouytil de build/packaging (maven, msbuild, gradle, ...) ?</t>
-  </si>
-  <si>
     <t>Les développeurs sont-ils sensibilisés à  la pratique des tests automatisés ?</t>
   </si>
   <si>
     <t>Les développeurs sont-ils sensibilisés à  la pratique de couverture de code ?</t>
   </si>
   <si>
-    <t>Si je travaille avec un partenaire externe, est ce que les rà¨gles de collaboration sont partagées ?</t>
-  </si>
-  <si>
-    <t>Est-ce que l'équipe de développement a accà¨s à  un profil utilisateur ?</t>
-  </si>
-  <si>
-    <t>Les développeurs ont-ils accà¨s à  un gestionnaire de dépendances de qualité, avec ou sans proxy et/ou miroirs ?</t>
-  </si>
-  <si>
-    <t>Quel est le dégré d'accà¨s documentaire technique ?</t>
-  </si>
-  <si>
-    <t>Quel est le dégré de confiance sur le rollback (retour arrià¨re) ?</t>
-  </si>
-  <si>
-    <t>Le projet/ produit est-il conà§u pour répondre à  un besoin identifié ete sa valeur ajoutée est-elle mesurable ?</t>
-  </si>
-  <si>
-    <t>Les hypothà¨ses sur la pertinence du lancement de l'application/projet/produit ont-elle été verifiées avec des utilisateurs ?</t>
-  </si>
-  <si>
-    <t>Y'a t'il un rà´le de Product Owner (PO) ou équivalent affecté au produit/application/projet ?</t>
-  </si>
-  <si>
     <t>L'équipe s'engage-t-elle sur sa capacité à  produire de la valeur aux utilisateurs ? (capacité en Sprint Planning Scrum, WIP Limit en Kanban, ...)</t>
   </si>
   <si>
-    <t>Comment est établi la mesure du succà¨s de l'équipe ?</t>
-  </si>
-  <si>
     <t>L'équipe délivre t'elle effectivement de la valeur métier à  chaque itération ?</t>
   </si>
   <si>
@@ -493,6 +430,979 @@
   </si>
   <si>
     <t>Stratégie de test complà¨te, évolutive, identifie et évalue les risques, prenant en compte les efforts nécessaire, précisant les conditions d'acceptations de livraison</t>
+  </si>
+  <si>
+    <t>Aucune traçabilité des incidents</t>
+  </si>
+  <si>
+    <t>Sujet Inconnu</t>
+  </si>
+  <si>
+    <t>Pas de cadre défini</t>
+  </si>
+  <si>
+    <t>Pas d'analyses de la base de code</t>
+  </si>
+  <si>
+    <t>Pas de SCM / Documentation non versionnée</t>
+  </si>
+  <si>
+    <t>Pas de convention de codage connue ou partagée</t>
+  </si>
+  <si>
+    <t>Pas d'outil de packaging reconnu</t>
+  </si>
+  <si>
+    <t>L'étape de compilation dure &gt;1h</t>
+  </si>
+  <si>
+    <t>Pas d'analyse ou pas d'exploitation des résultats</t>
+  </si>
+  <si>
+    <t>L'application n'est jamais packagée (pas compilée, pas zippée, pas versionnée)</t>
+  </si>
+  <si>
+    <t>L'application est compilée par les développeurs sur leurs postes</t>
+  </si>
+  <si>
+    <t>Pas d'intégration continue</t>
+  </si>
+  <si>
+    <t>Pas de tests automatisés</t>
+  </si>
+  <si>
+    <t>Pas de mesures de la couverture de code</t>
+  </si>
+  <si>
+    <t>Pas d'analyse de l'application</t>
+  </si>
+  <si>
+    <t>Pas de tests d'acceptation objectifs</t>
+  </si>
+  <si>
+    <t>Sessions d'analyse statique &gt; 1h</t>
+  </si>
+  <si>
+    <t>Inconnu</t>
+  </si>
+  <si>
+    <t>Si je travaille avec un partenaire externe, est ce que les règles de collaboration sont partagées ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'équipe de développement a accès à  un profil utilisateur ?</t>
+  </si>
+  <si>
+    <t>Pas de gestion des dépendances</t>
+  </si>
+  <si>
+    <t>Les développeurs ont-ils accès à  un gestionnaire de dépendances de qualité, avec ou sans proxy et/ou miroirs ?</t>
+  </si>
+  <si>
+    <t>Aucune instance n'est accessible ou ne peut-être reproduite sur les machines developpeurs</t>
+  </si>
+  <si>
+    <t>Quel est le niveau de l'environnement logiciel dédié aux contributeurs du projet ?</t>
+  </si>
+  <si>
+    <t>Pas de droits d'installation et pas le minimum nécessaire installé ou installable</t>
+  </si>
+  <si>
+    <t>&lt;2 sur 8</t>
+  </si>
+  <si>
+    <t>Quel est le dégré d'accès documentaire technique ?</t>
+  </si>
+  <si>
+    <t>Accès à ce qui est en local sur les postes locaux</t>
+  </si>
+  <si>
+    <t>Déploiement manuel</t>
+  </si>
+  <si>
+    <t>Moins d'une fois par an</t>
+  </si>
+  <si>
+    <t>Quel est le dégré de confiance sur le rollback (retour arrière) ?</t>
+  </si>
+  <si>
+    <t>Pas de procédure de rollback</t>
+  </si>
+  <si>
+    <t>Pas de monitoring, monitoring par le client.</t>
+  </si>
+  <si>
+    <t>Surtout, personne ne touche à notre périmètre (c'est confidentiel, trop dangereux, …)</t>
+  </si>
+  <si>
+    <t>Pas de processus prévus</t>
+  </si>
+  <si>
+    <t>L'équipe suit les formations internes obligatoires</t>
+  </si>
+  <si>
+    <t>L'UPM ou la Production est informée quelques jours avant la date de la livraison applicative</t>
+  </si>
+  <si>
+    <t>Le projet/ produit est-il conçu pour répondre à  un besoin identifié ete sa valeur ajoutée est-elle mesurable ?</t>
+  </si>
+  <si>
+    <t>Le besoin n'a pas été rattaché à des faits ou des données chiffrées et n'a pas fait l'objet d'une phase exploratrice incluant les utilisateurs</t>
+  </si>
+  <si>
+    <t>Un besoin exprimé, sans hypothèse, est utilisé pour démarrer le développement du produit</t>
+  </si>
+  <si>
+    <t>Pas de vision Produit, pas de backlog, au mieux un cahier des charges</t>
+  </si>
+  <si>
+    <t>il n'y a pas de PO</t>
+  </si>
+  <si>
+    <t>Les hypothèses sur la pertinence du lancement de l'application/projet/produit ont-elle été verifiées avec des utilisateurs ?</t>
+  </si>
+  <si>
+    <t>Y'a t'il un rôle de Product Owner (PO) ou équivalent affecté au produit/application/projet ?</t>
+  </si>
+  <si>
+    <t>Priorisation LAPU (last resquest), LOUPO (loudest person opinion)</t>
+  </si>
+  <si>
+    <t>L'équipe est chroniquement en sous-effectif</t>
+  </si>
+  <si>
+    <t>L'équipe est plutôt un groupe, ils sont plus de 12. Chaque membre de l'équipe se voit confier ses travaux par le chef de projet à qui il doit rendre compte de son avancement. Run et build sont gérés par des équipe différentes.</t>
+  </si>
+  <si>
+    <t>Priorisation inexistante ou inopérante. Multiplication du travail en cours et/ou en attente.  Incidents de productions traités sans visibilité, ou priorisation au détriment des évolutions du produit.</t>
+  </si>
+  <si>
+    <t>Le PO et l'équipe n'ont pas à se préoccuper de l'usage des fonctionnalités par les utilsateurs une fois en production</t>
+  </si>
+  <si>
+    <t>Les livraisons sur un envoironnement stable où on peut tester et s'assurer des résultats sont rares et la qualité n'est pas maitrisée</t>
+  </si>
+  <si>
+    <t>Comment est établi la mesure du succès de l'équipe ?</t>
+  </si>
+  <si>
+    <t>L'équipe suit un processus cycle en V traditionnel, sans déviation du plan initial, les utilisateurs ne découvrent le Produit qu'en fin de projet</t>
+  </si>
+  <si>
+    <t>Les livraisons ne répondent pas forcément aux besoins des utilisateurs</t>
+  </si>
+  <si>
+    <t>L'équipe traite les incidents/imprévus au fil de l'eau sans en chercher les root causes</t>
+  </si>
+  <si>
+    <t>Pas de stratégie produit</t>
+  </si>
+  <si>
+    <t>Les membres du projet connaissent leurs objectifs ou priorité des prochaines 24h</t>
+  </si>
+  <si>
+    <t>Les membres du projet connaissent leurs objectifs ou priorité de la semaine et sont confiant qu'il ne changeront pas</t>
+  </si>
+  <si>
+    <t>Les membres du projet connaissent leurs objectifs ou priorité du sprint (2 à 5 semaines) et sont confiant qu'il ne changeront pas</t>
+  </si>
+  <si>
+    <t>Les membres du projet connaissent leurs objectifs ou priorité du sprint (2 à 5 semaines) et  ont une idée assez précise  des objectifs et priorités du sprint suivant</t>
+  </si>
+  <si>
+    <t>Aucun bug connu existant  et non corrigé de plus de 6 mois</t>
+  </si>
+  <si>
+    <t>Aucun bug connu existant  et non corrigé de plus de 4 mois</t>
+  </si>
+  <si>
+    <t>Aucun bug connu existant  et non corrigé de plus de 2 mois</t>
+  </si>
+  <si>
+    <t>Aucun bug connu existant  et non corrigé de plus de 2 sprints</t>
+  </si>
+  <si>
+    <t>Les objectifs et la planification sont-il revus régulièrement en regard du contexte ?</t>
+  </si>
+  <si>
+    <t>êtes vous en mesure de définir les termes suivants : Dette technique /  Refactoring / Code Rot / Règle du boyscout ?</t>
+  </si>
+  <si>
+    <t>Les objectifs sont mis à jour en fonction des évènements de manière adhoc par le CP</t>
+  </si>
+  <si>
+    <t>Les contributeurs sont impliqués dans le processus de priorisation</t>
+  </si>
+  <si>
+    <t>Quid ?</t>
+  </si>
+  <si>
+    <t>Ah oui, je me souviens d'un truc !</t>
+  </si>
+  <si>
+    <t>Les règles qu'on toruve sur l'intranet, à tel endroit ?</t>
+  </si>
+  <si>
+    <t>Ah oui, les standard sur &lt;exemple1&gt; ou &lt;exemple 2&gt; qu'on peut trouver à tel endroit ?</t>
+  </si>
+  <si>
+    <t>Ben oui, on a même fait des retours dessus à nos architectes logiciels</t>
+  </si>
+  <si>
+    <t>Chaque développeur ne travaille que sur une partie de la base de code</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>Tous les membres de l'équipe se sentent capable de travailler sur toute la base de code avec un collègue référent</t>
+  </si>
+  <si>
+    <t>Tous les membres de l'équipe se sentent capable de travailler sur toute la base de code tant qu'un  collègue référent est disponible.</t>
+  </si>
+  <si>
+    <t>Tous les membres de l'équipe se sentent capable de travailler sur toute la base de code indépendamment.</t>
+  </si>
+  <si>
+    <t>Les contributeurs sont impliqués dans le processus d'estimation</t>
+  </si>
+  <si>
+    <t>Les contributeurs sont impliqués dans le processus de manière collégiale</t>
+  </si>
+  <si>
+    <t>Les contributeurs ont la visibilité sur les tâches à réaliser pour l'intégralité du projet</t>
+  </si>
+  <si>
+    <t>Les objectifs sont mis à jour en fonction des évènements de manière régulière par le CP</t>
+  </si>
+  <si>
+    <t>Les objectifs sont mis à jour en fonction des évènements de manière régulière avec l'ensemble des collaborateurs projets</t>
+  </si>
+  <si>
+    <t>Le sobjectifs et la planification sont revus régulièrement avec l'ensemble des contributeurs du projet</t>
+  </si>
+  <si>
+    <t>Les bugs connus sont listés</t>
+  </si>
+  <si>
+    <t>Les bugs connus sont qualifiés, historisés</t>
+  </si>
+  <si>
+    <t>Les bugs connus sont qualifiés, historisés, et remontés dans les supports de gouvernance</t>
+  </si>
+  <si>
+    <t>Pas de SCM distribué</t>
+  </si>
+  <si>
+    <t>Pas le SCM de référence</t>
+  </si>
+  <si>
+    <t>Pas de trunk de référence</t>
+  </si>
+  <si>
+    <t>Une branche tunk ou équivalent</t>
+  </si>
+  <si>
+    <t>Nombre de branches ouvertes &gt; 1x  le nb des développeurs</t>
+  </si>
+  <si>
+    <t>Nombre de branches ouvertes &gt; 3x  le nb des développeurs</t>
+  </si>
+  <si>
+    <t>Nombre de branches ouvertes &gt; 0.5x  le nb des développeurs</t>
+  </si>
+  <si>
+    <t>&gt;1mois</t>
+  </si>
+  <si>
+    <t>&gt;1 semaine</t>
+  </si>
+  <si>
+    <t>&gt; 1 jour</t>
+  </si>
+  <si>
+    <t>Quelle est la durée de vie moyenne des branches en cours de développement sur le serveur distant de référence (autre que le trunk) ?</t>
+  </si>
+  <si>
+    <t>Au moins un membre de l'équipe maitrise Git suffisament pour réecrire l'historique si nécessaie (mot de passe en dur, …)</t>
+  </si>
+  <si>
+    <t>Toute l'équipe maitrise Git</t>
+  </si>
+  <si>
+    <t>Pas de refactoring sans demande d'évolution explicite (don't fix what's not broken)</t>
+  </si>
+  <si>
+    <t>Refactoring limité au méthodes modifiés pour les travaux en cours</t>
+  </si>
+  <si>
+    <t>Au moins la moitié de l'équipe maitrise Git suffisament pour réecrire l'historique si nécessaire (mot de passe en dur, …)</t>
+  </si>
+  <si>
+    <t>Refactoring limité au fichiers modifiés pour les travaux en cours</t>
+  </si>
+  <si>
+    <t>Refactoring libre sur l'intégralité de la base de code</t>
+  </si>
+  <si>
+    <t>Revue ponctuelle</t>
+  </si>
+  <si>
+    <t>Revue régulière / Merge sur le poste développeur</t>
+  </si>
+  <si>
+    <t>Revues systématiques / merge sur le poste réviseur</t>
+  </si>
+  <si>
+    <t>Pull/merge request systématique</t>
+  </si>
+  <si>
+    <t>On peut identifier une conception orientée objet</t>
+  </si>
+  <si>
+    <t>On peut identifier une composante contenant la logique métier</t>
+  </si>
+  <si>
+    <t>Le ou les composants métiers sont indépendants de tous les autres composants et systèmes d'input/ouput</t>
+  </si>
+  <si>
+    <t>Le code reproduit une métaphore de la vision métier (ubiquitous language)</t>
+  </si>
+  <si>
+    <t>Quel est le niveau de maitrise de l'outil de build/packaging (maven, msbuild, gradle, ...) ?</t>
+  </si>
+  <si>
+    <t>Pair programming utilisé ponctuellement</t>
+  </si>
+  <si>
+    <t>Pair programming utilisé régulièrement</t>
+  </si>
+  <si>
+    <t>Porcess de pair programming régulier, bien défini et mis en place</t>
+  </si>
+  <si>
+    <t>Pas de pair programming depuis plus d'un mois</t>
+  </si>
+  <si>
+    <t>Des règles informelles sont partagées oralement</t>
+  </si>
+  <si>
+    <t>Un mix de règles locales et de références sont partagées</t>
+  </si>
+  <si>
+    <t>Un cadre explicite est formalisé existe, est partagé et est appliqué</t>
+  </si>
+  <si>
+    <t>Ce cadre inclut la vérification des standards de l'organisation</t>
+  </si>
+  <si>
+    <t>Les analyses ne sont pas particulièrmeent prises en compte</t>
+  </si>
+  <si>
+    <t>Les retours des analyses sont visible ou présentés régulièrement</t>
+  </si>
+  <si>
+    <t>Des actions de remédiations aux violations constatés sont mises en place</t>
+  </si>
+  <si>
+    <t>Un travail n'est aps considéré comme terminé tant que des violations sont constatés dans les rapports d'analyse</t>
+  </si>
+  <si>
+    <t>Un plan de gestion de configuration existe</t>
+  </si>
+  <si>
+    <t>Mise en œuvre partielle du plan de configuratiion</t>
+  </si>
+  <si>
+    <t>Mise en œuvre totale</t>
+  </si>
+  <si>
+    <t>Mise en œuvre totale dans els outils de référence</t>
+  </si>
+  <si>
+    <t>Une convention de codage connue mais pas forcément appliquée</t>
+  </si>
+  <si>
+    <t>Une convention de codage documentée explicitement</t>
+  </si>
+  <si>
+    <t>Une convention de codage documentée et utilisée comme référence lors des revues</t>
+  </si>
+  <si>
+    <t>Convention de codage existante, partagée, automatisée et appliquée systématiquement</t>
+  </si>
+  <si>
+    <t>Outil de packaging connu avec configuration partagée via SCM</t>
+  </si>
+  <si>
+    <t>Outil de packaging connu et utilisé par tout les développeurs</t>
+  </si>
+  <si>
+    <t>Outil de packaging connu et maitrisé par tout les développeurs</t>
+  </si>
+  <si>
+    <t>Outil de packaging connu</t>
+  </si>
+  <si>
+    <t>L'étape de compilation dure &lt;1h</t>
+  </si>
+  <si>
+    <t>Sessions d'analyse statique &lt; 1h</t>
+  </si>
+  <si>
+    <t>L'étape de compilation dure &lt;10min</t>
+  </si>
+  <si>
+    <t>L'étape de compilation dure &lt;1min</t>
+  </si>
+  <si>
+    <t>L'étape de compilation dure &lt;10sec</t>
+  </si>
+  <si>
+    <t>Les résultats des évaluations sont conservés</t>
+  </si>
+  <si>
+    <t>Les résultats des évaluations sont visibles par les développeurs</t>
+  </si>
+  <si>
+    <t>Les résultats des évaluations sont visibles par toute l'équipe</t>
+  </si>
+  <si>
+    <t>Les résultats des évaluations sont utilisés par les développeurs et pour le pilotage (vision applicative et porfolio)</t>
+  </si>
+  <si>
+    <t>L'application est packagé manuellement</t>
+  </si>
+  <si>
+    <t>L'application est packagée via une configuration et un outil</t>
+  </si>
+  <si>
+    <t>L'application est packagée via une configuration et un outil standard de l'organisation</t>
+  </si>
+  <si>
+    <t>L'application est packagée via une configuration historisée et un unique outil  standard de l'organisation</t>
+  </si>
+  <si>
+    <t>L'application est régulièrement compilée par un poste de référence</t>
+  </si>
+  <si>
+    <t>L'application est régulièrement et autromatiquement compilée par un serveur de build</t>
+  </si>
+  <si>
+    <t>L'application est régulièrement et autromatiquement compilée par un serveur de build fourni par l'organisation</t>
+  </si>
+  <si>
+    <t>Les résultats réguliers du serveur de build sont accessibles et consultés par l'équipe de développement</t>
+  </si>
+  <si>
+    <t>Pas de plateforme d'intégration continue</t>
+  </si>
+  <si>
+    <t>Process de la plateforme déclenché manuellement</t>
+  </si>
+  <si>
+    <t>Process de la plateforme déclenché automatiquement pour chaque modification de la base de code</t>
+  </si>
+  <si>
+    <t>Des tests automatisés existent</t>
+  </si>
+  <si>
+    <t>Des tests automatisés sont executés régulièrement</t>
+  </si>
+  <si>
+    <t>Des tests automatisés sont ajoutés et executés pour chaque ajout de fonctionalité</t>
+  </si>
+  <si>
+    <t>Pratiques de "revues de code" et de "pull/merge requiest" via la plateforme</t>
+  </si>
+  <si>
+    <t>Des tests automatisés sont executés pour chaque ajout de fonctionalité pour chaque évolutiond e la bas ede code (à chaque push)</t>
+  </si>
+  <si>
+    <t>Des mesures existent</t>
+  </si>
+  <si>
+    <t>Des mesures sont faites lors des tests automatisés</t>
+  </si>
+  <si>
+    <t>La couverture est stable ou en en progression permanente</t>
+  </si>
+  <si>
+    <t>La couverture des tests automatisés répond à la stratégie de tests du projet et de l'organisations</t>
+  </si>
+  <si>
+    <t>Des analyses statique de l'application sont faites régulièrement</t>
+  </si>
+  <si>
+    <t>Des analyses statique de l'application sont faites ponctuellement</t>
+  </si>
+  <si>
+    <t>Des analyses statique de l'application sont faites systématiquement pour chaque modification de code</t>
+  </si>
+  <si>
+    <t>Des analyses statique de l'application sont faites systématiquement pour chaque branche en cours de développement</t>
+  </si>
+  <si>
+    <t>Des tests automatisés sont rédigés avant la rédaction du code</t>
+  </si>
+  <si>
+    <t>Des tests reproduisant les bugs sont rédigés avant de coder la correction</t>
+  </si>
+  <si>
+    <t>Aucun code n'est rédigé sans rédaction préalable de tests validant son comportement</t>
+  </si>
+  <si>
+    <t>Il existe des tests d'acceptance dans les spécifications</t>
+  </si>
+  <si>
+    <t>les tests d'acceptance sont suffisants pour valider de manière autonome les évolutions</t>
+  </si>
+  <si>
+    <t>Les tests d'acceptance sont automatisés par les développeurs</t>
+  </si>
+  <si>
+    <t>Le stests d'acceptance sont automatisés via un parseur de domain specific language</t>
+  </si>
+  <si>
+    <t>Sessions d'analyse statique &lt; 10min</t>
+  </si>
+  <si>
+    <t>Sessions d'analyse statique &lt; 1min</t>
+  </si>
+  <si>
+    <t>Sessions d'analyse statique &lt; 10s</t>
+  </si>
+  <si>
+    <t>Sessions de tests automatisés &lt; 1h</t>
+  </si>
+  <si>
+    <t>Packaging &lt; 1j</t>
+  </si>
+  <si>
+    <t>Sessions de tests automatisés &lt; 10min</t>
+  </si>
+  <si>
+    <t>Sessions de tests automatisés &gt; 1h</t>
+  </si>
+  <si>
+    <t>Sessions de tests automatisés &lt; 1min</t>
+  </si>
+  <si>
+    <t>Sessions de tests automatisés &lt; 10s</t>
+  </si>
+  <si>
+    <t>Packaging &gt; 1j</t>
+  </si>
+  <si>
+    <t>Packaging &lt; 10 min</t>
+  </si>
+  <si>
+    <t>Packaging &lt; 1 min</t>
+  </si>
+  <si>
+    <t>Packaging &lt; 1h</t>
+  </si>
+  <si>
+    <t>Je sais que ses régles existent</t>
+  </si>
+  <si>
+    <t>Je sais où le trouver</t>
+  </si>
+  <si>
+    <t>Je sais m'y réferer</t>
+  </si>
+  <si>
+    <t>je l'ai déjà lu au moins une fois</t>
+  </si>
+  <si>
+    <t>Les développeurs peuvent reproduire une instance sur leur machine</t>
+  </si>
+  <si>
+    <t>Les développeurs ont accès à une version simulant les conditions de production</t>
+  </si>
+  <si>
+    <t>Au moins un membre du projet a accès à un compte utilisateur en production</t>
+  </si>
+  <si>
+    <t>Les développeurs ont accès à un compte utilisateur en production</t>
+  </si>
+  <si>
+    <t>Locaux non adaptés à la pratique du codage</t>
+  </si>
+  <si>
+    <t>Les développeurs ont la possibilité de s'isoler mentalement pour se concentrer (casques, télétravail, flex-office)</t>
+  </si>
+  <si>
+    <t>Locaux relativement silencieux avec peu ou très peu de perturbation (déménagements d'équipe, échange téléphoniques, demande d'interventions venant d'autres équipes, etc…)</t>
+  </si>
+  <si>
+    <t>Les développeurs ont la possibilité de s'isoler temporairement de leur equipe pour se concentrer</t>
+  </si>
+  <si>
+    <t>Les développeurs ont la possibilité de si'soler dans une pièce séparée pour se concentrer</t>
+  </si>
+  <si>
+    <t>La gestion des dépendances est faites via un dossier libs/third-party/vendors/…</t>
+  </si>
+  <si>
+    <t>Les gestions des dépendances est fairte via un gestionnaire de dépendances (maven, npm, apt, …)</t>
+  </si>
+  <si>
+    <t>Les gestions des dépendances est fairte via un gestionnaire de dépendances configuré avec un dépôt interne à la société</t>
+  </si>
+  <si>
+    <t>La gestion des dépendances est faite via un gezstionnaire de dépendances, configuré avec un dépôt public, ou un dépôt interne à la société avec un accès au dépots publics</t>
+  </si>
+  <si>
+    <t>Socle logiciel standard open source installé ou accessible (centre logiciel)</t>
+  </si>
+  <si>
+    <t>Socle logiciel professionnel (sous licence) installé ou accessible (centre logiciel)</t>
+  </si>
+  <si>
+    <t>Droits d'installation locaux, ou possibilité d'homologation d'outils open source supplémentaires</t>
+  </si>
+  <si>
+    <t>Possibilité d'homologation d'outils professionnels (sous licence) supplémentaires</t>
+  </si>
+  <si>
+    <t>&lt; 4 sur  8</t>
+  </si>
+  <si>
+    <t>&lt;6 sur 8</t>
+  </si>
+  <si>
+    <t>&lt; 8 sur 8</t>
+  </si>
+  <si>
+    <t>8 sur 8</t>
+  </si>
+  <si>
+    <t>Et ce qui est sur le réseau interne</t>
+  </si>
+  <si>
+    <t>Et ce qui est sur une whitelist d'url externes avec un process simple de mise à jour</t>
+  </si>
+  <si>
+    <t>et une bibliothèque de médias de formation ou de référence, papiers ou électronique</t>
+  </si>
+  <si>
+    <t>Extensive, ou avec un process d'ajout simple</t>
+  </si>
+  <si>
+    <t>Déploiement décrit dans une procédure ecrite</t>
+  </si>
+  <si>
+    <t>Déplacement d'un livrable et execution d'un script unique d'installation</t>
+  </si>
+  <si>
+    <t>Déploiement continu mis en place (validation click)</t>
+  </si>
+  <si>
+    <t>Déploiement continu mis en place (no click)</t>
+  </si>
+  <si>
+    <t>Moins d'une fois par trimestre</t>
+  </si>
+  <si>
+    <t>&lt; 1 fois par sprint</t>
+  </si>
+  <si>
+    <t>1 fois par sprint</t>
+  </si>
+  <si>
+    <t>1 par feature branch mergée/ +ieurs fois par sprint</t>
+  </si>
+  <si>
+    <t>Procédure manuelle existante (pas testée)</t>
+  </si>
+  <si>
+    <t>Proceédure manuelle testée régulièrement ou procédure automatisée</t>
+  </si>
+  <si>
+    <t>Proceédure manuelle testée à chaque MEP ou procédure automatisée testée régulièrement</t>
+  </si>
+  <si>
+    <t>Procédure de rollback automatisée et tetée à chaque MEP</t>
+  </si>
+  <si>
+    <t>Oui, mais pas à temps plein</t>
+  </si>
+  <si>
+    <t>Cas d'usage vérifiés manuellement à intervalles réguliers / Mon,itoring partiel (ou manuel), ou via reporting mail</t>
+  </si>
+  <si>
+    <t>Oui, depuis le début du projet, mais pas à temps plain, ou équipe de juiniors autonomes sur leurs montée en compétence</t>
+  </si>
+  <si>
+    <t>Oui, depuis le début du projet à temps plein, il transmet ses connaissances OU equipe de seniors autonomes sur leurs montée en compétences</t>
+  </si>
+  <si>
+    <t>Oui, depuis le début du projet, à temps plein, il transmets ses connaissances, et aplliqued et fait appliquer les standards de l'organisation</t>
+  </si>
+  <si>
+    <t>Cas d'usage vérifiés automatiqu"ement à intervalles réguliers / monitoring en temps reel, via une interface web</t>
+  </si>
+  <si>
+    <t>Cas d'usage et monitoring préventif (disk space, table space, network load, …) à intervalles réguliers /  Monitoring en temps réel affiché dans l'espace de développement</t>
+  </si>
+  <si>
+    <t>Cas d'usage et monitoring préventif en temps réel par affichage visuel / Monitoring en temps réel partagé avec le management et les stakeholders via une interface web</t>
+  </si>
+  <si>
+    <t>Le code est partagé de manière ad-hoc par demande individuelle</t>
+  </si>
+  <si>
+    <t>Le code est partagé avec le domaine dans lequel l'équipe évolue</t>
+  </si>
+  <si>
+    <t>Le code est partagé et accessible pas les autres équipes, y compris pour modification. Le code des autres équipes est accessible pour faire de même.</t>
+  </si>
+  <si>
+    <t>Des évenements sont régulièrement organisés pour faire participer les autres équipes à notre produit, et vice-versa</t>
+  </si>
+  <si>
+    <t>Outils de ticketing mis en place</t>
+  </si>
+  <si>
+    <t>Ticketing, téléphone, mail et messagerie instantanée</t>
+  </si>
+  <si>
+    <t>Esapce de collaboration statique existant (repertoire partagé, ...)</t>
+  </si>
+  <si>
+    <t>Esapce de collaboration dynamique existant (style wiki...) et messagerie instantanée d'équipe</t>
+  </si>
+  <si>
+    <t>L'équipe suit les formations internes obligatoires, et certains membres se forment en dehors du travail</t>
+  </si>
+  <si>
+    <t>L'équipe participe occasionnellement aux communautés d'experts disponibles</t>
+  </si>
+  <si>
+    <t>L'équipe participe régulièrment aux communautés d'experts disponibles, et/ou se forme via des katas organisés en fonction des besoins du projet, via une bibliothèque partagée, …</t>
+  </si>
+  <si>
+    <t>L'équipe participe voire anime régulièrment les communautés d'experts disponibles, et/ou se forme via des katas organisés en fonction des besoins du projet, via une bibliothèque partagée, ET participent à la formation des autres équipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La prodcution est correctement informée via le sprocess de cycle de vie projet / le sdevs sont correctemnt informés des pré-requis des enviornnmeents de production </t>
+  </si>
+  <si>
+    <t>Une fois par sprint, la production et les devs se rencontre pour échanger sur les réussites, echecs et établir de splans d'actions</t>
+  </si>
+  <si>
+    <t>Existence d'un poste Ops dans l'équipe de devs / Prod présente au revues de sprint</t>
+  </si>
+  <si>
+    <t>Post-mortems co-écrit et torts partagés / Réussites celebrées avec la prod / plans d'action partagés en cours / production présente au retrospectives de sprint</t>
+  </si>
+  <si>
+    <t>Le produit réponds à une demande métiers (pas forcément argumentée)</t>
+  </si>
+  <si>
+    <t>Le produit réponds à une demande métier documentée, argumentée</t>
+  </si>
+  <si>
+    <t>Le produit réponds à une demande métier documentée et challengée via une phase exploratrice incluant des utilisateurs</t>
+  </si>
+  <si>
+    <t>Les besoins ou problématiques utilisateurs ont été identifiés en collaboration avec les utilisateurs, la mise en place du produit apportera de la valeur sur la durée à l'utilisateur et s'appuie sur des données factuelles et/ou chiffrées</t>
+  </si>
+  <si>
+    <t>Les premières hypothèses font foi, le produit est construit à partir de celles-ci et les utilisateurs ne verront le produito qu'une fois qu'il sera terminé et livré en production</t>
+  </si>
+  <si>
+    <t>Une phase de MVP vient valider le coût de lancement du produit (Est-ce qu'on y arrivera techniquement)</t>
+  </si>
+  <si>
+    <t>Une phase de MVP/MMP (?) vient valider la pertinence de lancer le produit. Elle inclut des utilisateurs clés et son objectif est de vérifier la véracité des hypothèses à l'origine du Produit.</t>
+  </si>
+  <si>
+    <t>Une phase de MVP/MMP (?) vient valider la pertinence de lancer le produit. Elle inclut des utilisateurs clés et son objectif est de vérifier la véracité des hypothèses à l'origine du Produit.
+La pertinence des besoins exprimées est révaluée régulièrement</t>
+  </si>
+  <si>
+    <t>Un product owner, ou chef de projet définit la priorisation des tâches à réaliser</t>
+  </si>
+  <si>
+    <t>Un product owner, ou chef de projet définit la priorisation des tâches à réaliser, en incluant les besoins techniques (Non functional requirements)</t>
+  </si>
+  <si>
+    <t>Un product owner, ou chef de projet définit la priorisation des tâches à réaliser, en incluant les besoins techniques (Non functional requirements) en collaboration avec l'équipe de developement</t>
+  </si>
+  <si>
+    <t>PO, mais peu disponible</t>
+  </si>
+  <si>
+    <t>Un PO et/ou des représentatn (ProxyPO/BA) pour se backuper</t>
+  </si>
+  <si>
+    <t>Un PO unique avec un pouvoir de décision indiscuté, même à temps partiel</t>
+  </si>
+  <si>
+    <t>Les disponibilités du PO unique lui permette d'assurer leur fonctions et responsabilités à temps plein</t>
+  </si>
+  <si>
+    <t>La valeur métier est-elle une métrique de référence pour informaer les décisions prises par l'équipe ?</t>
+  </si>
+  <si>
+    <t>Pas d'évaluation de la valeur métier; la priorisation suit un modèle de type HIPPO (Highest Paid Person's Opinion)</t>
+  </si>
+  <si>
+    <t>Une évaluation de la valeur métier est faite pour chaque demande macros des utilisateurs</t>
+  </si>
+  <si>
+    <t>Une évaluation de la valeur métier est faite pour chaque demande macros des utilisateurs. Elle est revue potentiellement à chaque itération.</t>
+  </si>
+  <si>
+    <t>La valeur métier est définie qualitativement et collaborativement avec les parties prenantes et les décisions sont facilitées par un Product Owner (PO). Elle apparaît sur chaque User Story (US). Elle peut être revue à chaque itération en fonction des informations récoltées lors de l'itération.</t>
+  </si>
+  <si>
+    <t>Les membres de l'équipe changent  régulièremnt, de manière non anticipée</t>
+  </si>
+  <si>
+    <t>Léquipe est stable, le turnover est naturel (France 2018 18%)</t>
+  </si>
+  <si>
+    <t>Léquipe est stable, le turnover est naturel (France 2018 18%) et les changements sont  anticipés à plus d'1 mois.</t>
+  </si>
+  <si>
+    <t>Léquipe est stable, le turnover est raisonnable et pleinement intégré par l'équipe. (plus d1 an sans problèmes avec prise de contact avec un ancien collègue)</t>
+  </si>
+  <si>
+    <t>Chaque membres de l'équipe est dédié au produit/projet à 100%</t>
+  </si>
+  <si>
+    <t>L'équipe est multicompétente et donc autonome sur les questions qui la concernent ou qui sont dans ses prérogratives. Elle béneficient de tous les moyens qui lui sont nécéssaires pour les assumer de la façons de la façons la plus efficace. De plus ltouts les domaines techniques et fonctionnels sont couverts par aux moins deux équipiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run et build sont gérées par des équipes différentes. </t>
+  </si>
+  <si>
+    <t>Les memmbres de l'équipe entre 4 et 9 personnes collaborent au quotidien. Ils sont presque tous dédiés au produit/projet.</t>
+  </si>
+  <si>
+    <t>Priorisation inexistente ou inopérante.Multiplication du travail en cours et/ou en attente. Incident de production traité sans visibilité ou priorisation, au détriments des volutions du produits.Le PO prend la mesure des capacités de son équipe et priorisent les tâches au fil l'eau.</t>
+  </si>
+  <si>
+    <t>L'équipe maitrisent le temps passé et s'auto organisent pour traiter les incidents</t>
+  </si>
+  <si>
+    <t>L'équipe maitrise sa capacité, s'engage sur un périmètre et fait un maximum pour atteindre son objectif de l'itération. Elle rend visible son avancement, et communique en fonction de celui-ci.</t>
+  </si>
+  <si>
+    <t>Les incidents de production sont évaluées, priorisées et rendus visibles. Une bande passante leur est alloué afin qu'il ne viennet toucher à la capacité de l'équipe à faire évoluer  le produit.</t>
+  </si>
+  <si>
+    <t>Erreurs régulièrement partagées via un process mis en place. L'équipe s'assure également de l'utilité/la pertinence des actions prises.</t>
+  </si>
+  <si>
+    <t>Erreurs partagés au quotidien, les problèmes sont remontées en daily meeting dès qu'une situation le peermet et en vaut la peine. Les actions prises sont mesurables, ambitieuses (visant la racine du problème) et réaliste, et suivies dans le temps. Elles sont toujours menées à bien et leurs utilités/efficacité est révaluée après coup.</t>
+  </si>
+  <si>
+    <t>Les équipiers exposent facilemnt les erreurs au quotidien, et sont capables d'en discuter entre eux de façon constructive, que ce soit pour y remédier, ou pour éviter qu'elles ne se reproduisent. Cela aide vraiment l'équipe à s'améliorer.</t>
+  </si>
+  <si>
+    <t>Erreurs ponctuellements partagée, à la demande du management</t>
+  </si>
+  <si>
+    <t>Budget figé alloué au lancement du projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le PO définit le besoin en se substituant aux utilisateurs sans en avoir la légitimité, et sans les consulter </t>
+  </si>
+  <si>
+    <t>Les utilisateurs sont intégrés dans une boucle de feedback régulière afin de faire évoluer le produit (interview, démo, workshop, ateliers, …)</t>
+  </si>
+  <si>
+    <t>Un suivi des usages du produit est assuré factuellement et avec pour objectif de maximiser la valeur produite pour les utilisateurs.</t>
+  </si>
+  <si>
+    <t>Aucun partage de erreurs, les équipes peuvent cacher leurs erreurs sans conséquences.</t>
+  </si>
+  <si>
+    <t>L'eXperience Utilisateur (UX) est prise en compte tout du long de la vie du produit</t>
+  </si>
+  <si>
+    <t>Mensuel</t>
+  </si>
+  <si>
+    <t>Hebdo</t>
+  </si>
+  <si>
+    <t>Quotidien</t>
+  </si>
+  <si>
+    <t>Les livraisons sur un enironnement stables et ou on peut tester et s'assurer des résultats, sont faites dès validation de l'item, et la qualité est au centre des préoccupations. Potentiellement plusieurs fois par jour.</t>
+  </si>
+  <si>
+    <t>Les critères de mesure du succès et les indicateurs (KPI) correspondant sont définis et imposés par des personnes extérieures à l'équipe</t>
+  </si>
+  <si>
+    <t>Les critères de mesure du succès sont  co-construit avvec toutes les parties prenantes.</t>
+  </si>
+  <si>
+    <t>L'équipe donnent régulièrement de la visibilité sur l'avancement du produit. (Utiliateurs en sprint review, indicateurs accessibles, examples burdown chart) …)</t>
+  </si>
+  <si>
+    <t>Après le MVP, la qualité du produit augmente à chauqe livraison avec des fonctionnalités répondant au besoin utilisateur, et prenant en compte leurs retours.</t>
+  </si>
+  <si>
+    <t>L'équipe remonte à chaque root cause des incidents et imprévus et fait sont maximum pour éviter qu'ils ne se reproduisent.</t>
+  </si>
+  <si>
+    <t>root cause n'est pas forcément technique</t>
+  </si>
+  <si>
+    <t>Une vision est élaborée collectivemetn avec tous les acteurs du projet (partie prenante, management, équipe, exploitants) avec des élements tels que enjeux stratégie, vision, mission, objectifs.</t>
+  </si>
+  <si>
+    <t>Un Vision est élaborée collaborativement aec tous les acteurs du projets (partie prenante, management, équipe, exploitants) avec des élements tels que enjeux stratégie, vision, mission, objectifs. Et revues régulièrement.</t>
+  </si>
+  <si>
+    <t>"On veut comme ça sauf que…"</t>
+  </si>
+  <si>
+    <t>Aucune vision du produit n'est définie "J'aimerai qu'on puisse faire ça"</t>
+  </si>
+  <si>
+    <t>"On a une demande de …, on ne sait pas encore si ça vaut le coup"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget alloué annuellements au projets d'évolutions </t>
+  </si>
+  <si>
+    <t>Budget revu annuellement au niveau du produit</t>
+  </si>
+  <si>
+    <t>Budget annuel, est indexé sur la valeur métier du produit.</t>
+  </si>
+  <si>
+    <t>La budgétisation de l'équipe n'est pas liée à un exervcice budgétaire annuel. Le budget est révalué régulièrement par raport à la valeur apportées au autres utilisateurs, par rapport a celle des autres produits.</t>
+  </si>
+  <si>
+    <t>Question  spécifique à la gestion d'équipe et des individus ?</t>
+  </si>
+  <si>
+    <t>La stratégie produit est définie au début du projet.</t>
+  </si>
+  <si>
+    <t>La stratégie produit est mise à jour au moins annuelllement</t>
+  </si>
+  <si>
+    <t>La stratégie produit est revue régulièrement en incluant les evols sur plusieurs années, en incluant la maintenace</t>
+  </si>
+  <si>
+    <t>La stratégie produit est partagée à tous les niveaux de l'organisation. Visible et accessible à tous moments  via un management visuel. Elle s'appuie sur des KPI agile/devops et éconmiques  dont la pertinence est reveu régulièrement, qui peuvent faire évoluer la stratégie du produit.</t>
   </si>
 </sst>
 </file>
@@ -976,12 +1886,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1337,923 +2255,1854 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="42.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="42.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="L1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="I3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="D13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="D18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+        <v>250</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="C28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31">
+        <v>83</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32">
+        <v>84</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33">
+        <v>125</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34">
+        <v>126</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35">
+        <v>85</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="C37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+        <v>88</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="C39" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41">
+        <v>153</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42">
+        <v>154</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="C72" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="C73" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F74" t="s">
-        <v>151</v>
-      </c>
-      <c r="G74" t="s">
-        <v>152</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="F74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I74" t="s">
-        <v>117</v>
-      </c>
-      <c r="L74" t="s">
+      <c r="I74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D75" t="s">
-        <v>119</v>
-      </c>
-      <c r="E75" t="s">
-        <v>153</v>
-      </c>
-      <c r="F75" t="s">
-        <v>154</v>
-      </c>
-      <c r="G75" t="s">
-        <v>155</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="D75" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I75" t="s">
-        <v>117</v>
-      </c>
-      <c r="L75" t="s">
+      <c r="I75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D76" t="s">
-        <v>120</v>
-      </c>
-      <c r="E76" t="s">
-        <v>121</v>
-      </c>
-      <c r="F76" t="s">
-        <v>122</v>
-      </c>
-      <c r="G76" t="s">
-        <v>123</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="D76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I76" t="s">
-        <v>117</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="I76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C77" t="s">
-        <v>124</v>
-      </c>
-      <c r="D77" t="s">
-        <v>125</v>
-      </c>
-      <c r="E77" t="s">
-        <v>126</v>
-      </c>
-      <c r="F77" t="s">
-        <v>127</v>
-      </c>
-      <c r="G77" t="s">
-        <v>128</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="C77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I77" t="s">
-        <v>117</v>
-      </c>
-      <c r="L77" t="s">
+      <c r="I77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B85" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/pratiques.xlsx
+++ b/pratiques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\orgnosis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA2F472-99D7-4461-B393-BE28F6946725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{32348175-EC33-4A5F-B1C9-F36D426A5E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pratiques" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="482" uniqueCount="459">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="444" uniqueCount="421">
   <si>
     <t>id</t>
   </si>
@@ -576,6 +576,9 @@
     <t>Priorisation inexistante ou inopérante. Multiplication du travail en cours et/ou en attente.  Incidents de productions traités sans visibilité, ou priorisation au détriment des évolutions du produit.</t>
   </si>
   <si>
+    <t>Jamis, les équipes peuvent cahcer leurs erreurs sans conséquences.</t>
+  </si>
+  <si>
     <t>Le PO et l'équipe n'ont pas à se préoccuper de l'usage des fonctionnalités par les utilsateurs une fois en production</t>
   </si>
   <si>
@@ -585,6 +588,9 @@
     <t>Comment est établi la mesure du succès de l'équipe ?</t>
   </si>
   <si>
+    <t>Les critères de mesure du succèes et les indicateurs (KPI) correspondant sont définis et imposés par des personnes extérieures à l'équipe</t>
+  </si>
+  <si>
     <t>L'équipe suit un processus cycle en V traditionnel, sans déviation du plan initial, les utilisateurs ne découvrent le Produit qu'en fin de projet</t>
   </si>
   <si>
@@ -594,7 +600,13 @@
     <t>L'équipe traite les incidents/imprévus au fil de l'eau sans en chercher les root causes</t>
   </si>
   <si>
+    <t>Aucune vision du produit n'est définie</t>
+  </si>
+  <si>
     <t>Pas de stratégie produit</t>
+  </si>
+  <si>
+    <t>Bufget figé alloué au lancement du projet</t>
   </si>
   <si>
     <t>Les membres du projet connaissent leurs objectifs ou priorité des prochaines 24h</t>
@@ -1277,132 +1289,6 @@
   </si>
   <si>
     <t>Léquipe est stable, le turnover est raisonnable et pleinement intégré par l'équipe. (plus d1 an sans problèmes avec prise de contact avec un ancien collègue)</t>
-  </si>
-  <si>
-    <t>Chaque membres de l'équipe est dédié au produit/projet à 100%</t>
-  </si>
-  <si>
-    <t>L'équipe est multicompétente et donc autonome sur les questions qui la concernent ou qui sont dans ses prérogratives. Elle béneficient de tous les moyens qui lui sont nécéssaires pour les assumer de la façons de la façons la plus efficace. De plus ltouts les domaines techniques et fonctionnels sont couverts par aux moins deux équipiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run et build sont gérées par des équipes différentes. </t>
-  </si>
-  <si>
-    <t>Les memmbres de l'équipe entre 4 et 9 personnes collaborent au quotidien. Ils sont presque tous dédiés au produit/projet.</t>
-  </si>
-  <si>
-    <t>Priorisation inexistente ou inopérante.Multiplication du travail en cours et/ou en attente. Incident de production traité sans visibilité ou priorisation, au détriments des volutions du produits.Le PO prend la mesure des capacités de son équipe et priorisent les tâches au fil l'eau.</t>
-  </si>
-  <si>
-    <t>L'équipe maitrisent le temps passé et s'auto organisent pour traiter les incidents</t>
-  </si>
-  <si>
-    <t>L'équipe maitrise sa capacité, s'engage sur un périmètre et fait un maximum pour atteindre son objectif de l'itération. Elle rend visible son avancement, et communique en fonction de celui-ci.</t>
-  </si>
-  <si>
-    <t>Les incidents de production sont évaluées, priorisées et rendus visibles. Une bande passante leur est alloué afin qu'il ne viennet toucher à la capacité de l'équipe à faire évoluer  le produit.</t>
-  </si>
-  <si>
-    <t>Erreurs régulièrement partagées via un process mis en place. L'équipe s'assure également de l'utilité/la pertinence des actions prises.</t>
-  </si>
-  <si>
-    <t>Erreurs partagés au quotidien, les problèmes sont remontées en daily meeting dès qu'une situation le peermet et en vaut la peine. Les actions prises sont mesurables, ambitieuses (visant la racine du problème) et réaliste, et suivies dans le temps. Elles sont toujours menées à bien et leurs utilités/efficacité est révaluée après coup.</t>
-  </si>
-  <si>
-    <t>Les équipiers exposent facilemnt les erreurs au quotidien, et sont capables d'en discuter entre eux de façon constructive, que ce soit pour y remédier, ou pour éviter qu'elles ne se reproduisent. Cela aide vraiment l'équipe à s'améliorer.</t>
-  </si>
-  <si>
-    <t>Erreurs ponctuellements partagée, à la demande du management</t>
-  </si>
-  <si>
-    <t>Budget figé alloué au lancement du projet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le PO définit le besoin en se substituant aux utilisateurs sans en avoir la légitimité, et sans les consulter </t>
-  </si>
-  <si>
-    <t>Les utilisateurs sont intégrés dans une boucle de feedback régulière afin de faire évoluer le produit (interview, démo, workshop, ateliers, …)</t>
-  </si>
-  <si>
-    <t>Un suivi des usages du produit est assuré factuellement et avec pour objectif de maximiser la valeur produite pour les utilisateurs.</t>
-  </si>
-  <si>
-    <t>Aucun partage de erreurs, les équipes peuvent cacher leurs erreurs sans conséquences.</t>
-  </si>
-  <si>
-    <t>L'eXperience Utilisateur (UX) est prise en compte tout du long de la vie du produit</t>
-  </si>
-  <si>
-    <t>Mensuel</t>
-  </si>
-  <si>
-    <t>Hebdo</t>
-  </si>
-  <si>
-    <t>Quotidien</t>
-  </si>
-  <si>
-    <t>Les livraisons sur un enironnement stables et ou on peut tester et s'assurer des résultats, sont faites dès validation de l'item, et la qualité est au centre des préoccupations. Potentiellement plusieurs fois par jour.</t>
-  </si>
-  <si>
-    <t>Les critères de mesure du succès et les indicateurs (KPI) correspondant sont définis et imposés par des personnes extérieures à l'équipe</t>
-  </si>
-  <si>
-    <t>Les critères de mesure du succès sont  co-construit avvec toutes les parties prenantes.</t>
-  </si>
-  <si>
-    <t>L'équipe donnent régulièrement de la visibilité sur l'avancement du produit. (Utiliateurs en sprint review, indicateurs accessibles, examples burdown chart) …)</t>
-  </si>
-  <si>
-    <t>Après le MVP, la qualité du produit augmente à chauqe livraison avec des fonctionnalités répondant au besoin utilisateur, et prenant en compte leurs retours.</t>
-  </si>
-  <si>
-    <t>L'équipe remonte à chaque root cause des incidents et imprévus et fait sont maximum pour éviter qu'ils ne se reproduisent.</t>
-  </si>
-  <si>
-    <t>root cause n'est pas forcément technique</t>
-  </si>
-  <si>
-    <t>Une vision est élaborée collectivemetn avec tous les acteurs du projet (partie prenante, management, équipe, exploitants) avec des élements tels que enjeux stratégie, vision, mission, objectifs.</t>
-  </si>
-  <si>
-    <t>Un Vision est élaborée collaborativement aec tous les acteurs du projets (partie prenante, management, équipe, exploitants) avec des élements tels que enjeux stratégie, vision, mission, objectifs. Et revues régulièrement.</t>
-  </si>
-  <si>
-    <t>"On veut comme ça sauf que…"</t>
-  </si>
-  <si>
-    <t>Aucune vision du produit n'est définie "J'aimerai qu'on puisse faire ça"</t>
-  </si>
-  <si>
-    <t>"On a une demande de …, on ne sait pas encore si ça vaut le coup"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget alloué annuellements au projets d'évolutions </t>
-  </si>
-  <si>
-    <t>Budget revu annuellement au niveau du produit</t>
-  </si>
-  <si>
-    <t>Budget annuel, est indexé sur la valeur métier du produit.</t>
-  </si>
-  <si>
-    <t>La budgétisation de l'équipe n'est pas liée à un exervcice budgétaire annuel. Le budget est révalué régulièrement par raport à la valeur apportées au autres utilisateurs, par rapport a celle des autres produits.</t>
-  </si>
-  <si>
-    <t>Question  spécifique à la gestion d'équipe et des individus ?</t>
-  </si>
-  <si>
-    <t>La stratégie produit est définie au début du projet.</t>
-  </si>
-  <si>
-    <t>La stratégie produit est mise à jour au moins annuelllement</t>
-  </si>
-  <si>
-    <t>La stratégie produit est revue régulièrement en incluant les evols sur plusieurs années, en incluant la maintenace</t>
-  </si>
-  <si>
-    <t>La stratégie produit est partagée à tous les niveaux de l'organisation. Visible et accessible à tous moments  via un management visuel. Elle s'appuie sur des KPI agile/devops et éconmiques  dont la pertinence est reveu régulièrement, qui peuvent faire évoluer la stratégie du produit.</t>
   </si>
 </sst>
 </file>
@@ -2255,25 +2141,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="42.453125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="42.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.453125" style="1"/>
+    <col min="9" max="9" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2197,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2322,13 +2208,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>51</v>
@@ -2346,7 +2232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2384,7 +2270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2419,7 +2305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2442,7 +2328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2465,7 +2351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2476,19 +2362,19 @@
         <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2499,42 +2385,42 @@
         <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2545,19 +2431,19 @@
         <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2565,22 +2451,22 @@
         <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2591,42 +2477,42 @@
         <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2637,19 +2523,19 @@
         <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2660,42 +2546,42 @@
         <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2706,19 +2592,19 @@
         <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2729,19 +2615,19 @@
         <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2752,19 +2638,19 @@
         <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2775,19 +2661,19 @@
         <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2798,19 +2684,19 @@
         <v>136</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2821,19 +2707,19 @@
         <v>137</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2844,19 +2730,19 @@
         <v>138</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2867,19 +2753,19 @@
         <v>139</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2890,42 +2776,42 @@
         <v>140</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2936,19 +2822,19 @@
         <v>142</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2959,19 +2845,19 @@
         <v>143</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2982,19 +2868,19 @@
         <v>144</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3005,19 +2891,19 @@
         <v>145</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3028,19 +2914,19 @@
         <v>146</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3051,19 +2937,19 @@
         <v>147</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3074,19 +2960,19 @@
         <v>148</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3097,19 +2983,19 @@
         <v>149</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3120,19 +3006,19 @@
         <v>147</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3143,19 +3029,19 @@
         <v>150</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3166,19 +3052,19 @@
         <v>151</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3186,22 +3072,22 @@
         <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3209,22 +3095,22 @@
         <v>22</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3235,19 +3121,19 @@
         <v>152</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3258,19 +3144,19 @@
         <v>157</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3278,22 +3164,22 @@
         <v>89</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3304,19 +3190,19 @@
         <v>155</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3327,19 +3213,19 @@
         <v>159</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3350,19 +3236,19 @@
         <v>160</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3373,19 +3259,19 @@
         <v>162</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3396,19 +3282,19 @@
         <v>163</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3419,19 +3305,19 @@
         <v>164</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3442,19 +3328,19 @@
         <v>166</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3465,19 +3351,19 @@
         <v>28</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3488,19 +3374,19 @@
         <v>167</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3511,19 +3397,19 @@
         <v>168</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3534,19 +3420,19 @@
         <v>169</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3557,19 +3443,19 @@
         <v>170</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3580,19 +3466,19 @@
         <v>171</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3603,19 +3489,19 @@
         <v>173</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3626,19 +3512,19 @@
         <v>174</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3649,16 +3535,16 @@
         <v>175</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3669,42 +3555,42 @@
         <v>176</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3715,19 +3601,19 @@
         <v>180</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3737,20 +3623,8 @@
       <c r="C62" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3760,20 +3634,8 @@
       <c r="C63" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3781,22 +3643,10 @@
         <v>102</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3804,22 +3654,10 @@
         <v>103</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3827,36 +3665,21 @@
         <v>104</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3864,13 +3687,10 @@
         <v>105</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3878,13 +3698,10 @@
         <v>128</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3892,13 +3709,10 @@
         <v>106</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3906,22 +3720,10 @@
         <v>129</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3929,22 +3731,10 @@
         <v>107</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3952,22 +3742,10 @@
         <v>108</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3999,7 +3777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4031,7 +3809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4063,7 +3841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4093,16 +3871,6 @@
       </c>
       <c r="L77" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B85" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
   </sheetData>
